--- a/Excel/全局.xlsx
+++ b/Excel/全局.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\TheLoop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D659D63D-55B1-4AA5-8D97-50111E7C2A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5BDBBE-A28B-4FA5-AF36-7828A83D62AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4044" yWindow="4740" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6072" yWindow="4044" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,26 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_by_last_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更具剩余的卡牌数量x这个数字，得到奖励的金币数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,19 +404,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="3" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="75.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -406,8 +427,14 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -417,8 +444,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -428,13 +458,30 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
